--- a/Netbeans/ANA-ADDIX/output/data_storage/sorae.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/sorae.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -49,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,7 +464,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +520,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +686,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +854,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
